--- a/public/report/PackageReport.xlsx
+++ b/public/report/PackageReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>reference_number</t>
   </si>
@@ -44,7 +44,13 @@
     <t>total_items</t>
   </si>
   <si>
-    <t>DM9269</t>
+    <t>DM2752</t>
+  </si>
+  <si>
+    <t>branch-pp</t>
+  </si>
+  <si>
+    <t>branch-kp</t>
   </si>
   <si>
     <t>Decline</t>
@@ -53,7 +59,7 @@
     <t>Paid</t>
   </si>
   <si>
-    <t>DM2798</t>
+    <t>DM9104</t>
   </si>
   <si>
     <t>Processing</t>
@@ -434,54 +440,54 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>46546</v>
+        <v>1234325</v>
       </c>
       <c r="C2">
-        <v>56768</v>
-      </c>
-      <c r="D2">
+        <v>345435</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>77.0</v>
+      </c>
+      <c r="I2">
         <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>9.0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>24354</v>
+        <v>243432</v>
       </c>
       <c r="C3">
-        <v>54565</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>544654</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I3">
         <v>1</v>

--- a/public/report/PackageReport.xlsx
+++ b/public/report/PackageReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>reference_number</t>
   </si>
@@ -47,13 +47,13 @@
     <t>DM2752</t>
   </si>
   <si>
-    <t>branch-pp</t>
-  </si>
-  <si>
     <t>branch-kp</t>
   </si>
   <si>
-    <t>Decline</t>
+    <t>branch-tk</t>
+  </si>
+  <si>
+    <t>Processing</t>
   </si>
   <si>
     <t>Paid</t>
@@ -62,7 +62,10 @@
     <t>DM9104</t>
   </si>
   <si>
-    <t>Processing</t>
+    <t>DM5215</t>
+  </si>
+  <si>
+    <t>Shipped</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,10 +481,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -490,6 +493,35 @@
         <v>4.0</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>24324</v>
+      </c>
+      <c r="C4">
+        <v>21432</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>34.0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>

--- a/public/report/PackageReport.xlsx
+++ b/public/report/PackageReport.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>reference_number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>sender_phone</t>
@@ -32,9 +32,6 @@
     <t>destination</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>pay_status</t>
   </si>
   <si>
@@ -44,25 +41,16 @@
     <t>total_items</t>
   </si>
   <si>
-    <t>DM4307</t>
-  </si>
-  <si>
-    <t>0121112222</t>
-  </si>
-  <si>
-    <t>011222324</t>
-  </si>
-  <si>
-    <t>Branch-Takeo</t>
-  </si>
-  <si>
-    <t>Branch-KPS</t>
-  </si>
-  <si>
-    <t>Pending</t>
+    <t>branch-kp</t>
+  </si>
+  <si>
+    <t>branch-tk</t>
   </si>
   <si>
     <t>Paid</t>
+  </si>
+  <si>
+    <t>branch-pp</t>
   </si>
 </sst>
 </file>
@@ -398,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +394,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,36 +419,160 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>124324</v>
+      </c>
+      <c r="C2">
+        <v>43546</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>53.86</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>32435</v>
+      </c>
+      <c r="C3">
+        <v>43654</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>9.29</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1243214</v>
+      </c>
+      <c r="C4">
+        <v>3214441</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>3.56</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1243456</v>
+      </c>
+      <c r="C5">
+        <v>576578</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>66.8</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>23423149</v>
+      </c>
+      <c r="C6">
+        <v>8973459</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>0.0</v>
-      </c>
-      <c r="I2">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>45.6</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>22143124</v>
+      </c>
+      <c r="C7">
+        <v>4563567</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>45.6</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
